--- a/base1.xlsx
+++ b/base1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DF9320-C472-471A-99B5-7359EE0C3B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E5BEF4-56CD-49DB-B12F-44443EFD464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E266A6EB-6EC5-4BC7-83EE-238A3F1DCA5B}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Nombre del Artista</t>
-  </si>
-  <si>
     <t>Canciones en total</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Discos</t>
+  </si>
+  <si>
+    <t>NombredelArtista</t>
   </si>
 </sst>
 </file>
@@ -420,9 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE82EFB3-7514-4E9F-A1A4-E303BF3A7A47}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -434,21 +432,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -457,12 +455,12 @@
         <v>537</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -471,12 +469,12 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -485,12 +483,12 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -499,12 +497,12 @@
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -513,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
